--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="513" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>52.973383485962927</v>
+        <v>49.144947897927672</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -141,7 +141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>38.497295127655633</v>
+        <v>33.128717724147037</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -152,7 +152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>11.094171599930988</v>
+        <v>10.503584335380593</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -163,7 +163,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>43.449173996989963</v>
+        <v>26.962458710109107</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>38.567611822930964</v>
+        <v>37.668658374354713</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -185,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>12.594139145905016</v>
+        <v>10.563180831154085</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -196,7 +196,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>43.366009236607262</v>
+        <v>44.772509396653362</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -207,7 +207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>24.776805028285828</v>
+        <v>36.672671170432999</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="513" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="646" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>
@@ -109,9 +109,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="13.46484375" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>49.144947897927672</v>
+        <v>54.473378555443993</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -141,7 +141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>33.128717724147037</v>
+        <v>32.598269851519511</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -152,7 +152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>10.503584335380593</v>
+        <v>13.411851961272751</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -163,7 +163,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>26.962458710109107</v>
+        <v>55.870498547441031</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>37.668658374354713</v>
+        <v>33.73868240861232</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -185,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>10.563180831154085</v>
+        <v>14.639264531641869</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -196,7 +196,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>44.772509396653362</v>
+        <v>38.083375505035008</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -207,7 +207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>36.672671170432999</v>
+        <v>15.681388231401629</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="646" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="703" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>
@@ -109,9 +109,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="13.46484375" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>54.473378555443993</v>
+        <v>54.951144613083095</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -141,7 +141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>32.598269851519511</v>
+        <v>26.309799551422486</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -152,7 +152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>13.411851961272751</v>
+        <v>18.404036144300758</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -163,7 +163,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>55.870498547441031</v>
+        <v>45.598273085931588</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>33.73868240861232</v>
+        <v>35.846945556233649</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -185,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>14.639264531641869</v>
+        <v>12.194011847007653</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -196,7 +196,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>38.083375505035008</v>
+        <v>40.594365598338776</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -207,7 +207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>15.681388231401629</v>
+        <v>16.556238448663667</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="703" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="779" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>
@@ -109,9 +109,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="13.46484375" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>54.951144613083095</v>
+        <v>54.260289763386183</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -141,7 +141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>26.309799551422486</v>
+        <v>32.560683678541416</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -152,7 +152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>18.404036144300758</v>
+        <v>15.685015910083401</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -163,7 +163,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>45.598273085931588</v>
+        <v>45.083278531798399</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>35.846945556233649</v>
+        <v>33.713325436308381</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -185,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>12.194011847007653</v>
+        <v>12.867763186257303</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -196,7 +196,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>40.594365598338776</v>
+        <v>40.493377081668868</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -207,7 +207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>16.556238448663667</v>
+        <v>15.186340600886382</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="779" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="855" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="855" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="931" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="931" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="950" uniqueCount="15">
   <si>
     <t>normal_flow_rate_details1</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="950" uniqueCount="15">
-  <si>
-    <t>normal_flow_rate_details1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="12">
+  <si>
+    <t>Operation phase</t>
   </si>
   <si>
     <t>Warm tank refuel chilldown</t>
@@ -42,22 +42,13 @@
     <t>Defuel wamrup</t>
   </si>
   <si>
-    <t>normal_flow_rate_details2</t>
-  </si>
-  <si>
-    <t>normal_flow_rate_details3</t>
+    <t>Mean flow rate</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>m/s</t>
-  </si>
-  <si>
-    <t>Operation phase</t>
-  </si>
-  <si>
-    <t>Mean flow rate</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -116,13 +107,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -130,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>54.260289763386183</v>
+        <v>21.509545652562473</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -141,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>32.560683678541416</v>
+        <v>5.4887138399957749</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -152,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>15.685015910083401</v>
+        <v>16.180644693854031</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -163,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>45.083278531798399</v>
+        <v>22.37187719861836</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -174,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>33.713325436308381</v>
+        <v>4.9961956554845965</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -185,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>12.867763186257303</v>
+        <v>27.436120310086068</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -196,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>40.493377081668868</v>
+        <v>30.451713659305238</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -207,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>15.186340600886382</v>
+        <v>15.822140733987464</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="171" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="171" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="418" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="418" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MW\Documents\Bristol\Year 3\RP3\Model\LH2_Refuel_Model\Graphs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58759CC6-3933-42A4-96BF-1F42FB846431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -54,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -69,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,133 +84,459 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="26.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>21.509545652562473</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>5.4887138399957749</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>16.180644693854031</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>22.37187719861836</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4.9961956554845965</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>27.436120310086068</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>30.451713659305238</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>15.822140733987464</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58759CC6-3933-42A4-96BF-1F42FB846431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="399" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -61,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +84,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,7 +110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,7 +261,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -283,9 +285,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -309,7 +311,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -344,7 +346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -362,7 +364,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -387,7 +389,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -423,116 +425,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>21.509545652562473</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B2" s="0">
+        <v>24.60777723447713</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.4887138399957749</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B3" s="0">
+        <v>1.858667671557108</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>16.180644693854031</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B4" s="0">
+        <v>50.622631022042654</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>22.37187719861836</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B5" s="0">
+        <v>13.56631717480707</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>4.9961956554845965</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" s="0">
+        <v>3.2040675551705422</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>27.436120310086068</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B7" s="0">
+        <v>43.596264765641457</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>30.451713659305238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B8" s="0">
+        <v>17.429177160276236</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>15.822140733987464</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="0">
+        <v>25.137348601619298</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="399" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="475" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -434,9 +434,9 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="13.46484375" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.45">
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>24.60777723447713</v>
+        <v>55.316337084648211</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>1.858667671557108</v>
+        <v>3.6835346256132366</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>50.622631022042654</v>
+        <v>63.805800937286598</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>13.56631717480707</v>
+        <v>55.566792398693408</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>3.2040675551705422</v>
+        <v>4.3107154575063431</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>43.596264765641457</v>
+        <v>64.332722467406342</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>17.429177160276236</v>
+        <v>56.214657490895917</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>25.137348601619298</v>
+        <v>38.585719709451205</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="475" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="551" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>55.316337084648211</v>
+        <v>26.369247092902945</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.6835346256132366</v>
+        <v>8.0806907882080825</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>63.805800937286598</v>
+        <v>7.193251434769679</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>55.566792398693408</v>
+        <v>45.009293342831313</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>4.3107154575063431</v>
+        <v>8.2824300942952949</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>64.332722467406342</v>
+        <v>18.578645391501425</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>56.214657490895917</v>
+        <v>92.876904603779636</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>38.585719709451205</v>
+        <v>30.491577452628928</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>42.284189438617226</v>
+        <v>33.715737664422008</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>9.0749990407914112</v>
+        <v>2.8643075125809778</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>24.379294324909587</v>
+        <v>17.672946448842847</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>68.42914761438098</v>
+        <v>46.868462385135516</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>8.7166639318953685</v>
+        <v>10.836205237344824</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>18.037342640429202</v>
+        <v>17.843623424291518</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>97.77765922860047</v>
+        <v>30.488507146666773</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>20.204247265797683</v>
+        <v>15.695620009799692</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="13.46484375" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>33.715737664422008</v>
+        <v>29.953821277005368</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.8643075125809778</v>
+        <v>2.8282432808873317</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>17.672946448842847</v>
+        <v>42.331879980233133</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>46.868462385135516</v>
+        <v>24.850481699987352</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>10.836205237344824</v>
+        <v>5.2102380718459118</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>17.843623424291518</v>
+        <v>41.76100252053034</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>30.488507146666773</v>
+        <v>29.441554371981745</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>15.695620009799692</v>
+        <v>30.693010113113001</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="13.46484375" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>29.953821277005368</v>
+        <v>29.964160680031473</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.8282432808873317</v>
+        <v>2.8162993626697821</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>42.331879980233133</v>
+        <v>42.322612779287027</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>24.850481699987352</v>
+        <v>24.623276555115901</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>5.2102380718459118</v>
+        <v>5.1952042446148887</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>41.76100252053034</v>
+        <v>41.823153341390359</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>29.441554371981745</v>
+        <v>29.437629755248917</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>30.693010113113001</v>
+        <v>30.649747510032938</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="13.46484375" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>29.964160680031473</v>
+        <v>29.953821277005368</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.8162993626697821</v>
+        <v>2.8282432808873317</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>42.322612779287027</v>
+        <v>42.331879980233133</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>24.623276555115901</v>
+        <v>24.850481699987352</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>5.1952042446148887</v>
+        <v>5.2102380718459118</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>41.823153341390359</v>
+        <v>41.76100252053034</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>29.437629755248917</v>
+        <v>29.441554371981745</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>30.649747510032938</v>
+        <v>30.693010113113001</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal flow rate details.xlsx
+++ b/Graphs/normal flow rate details.xlsx
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>29.953821277005368</v>
+        <v>33.715737664422008</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.8282432808873317</v>
+        <v>2.8643075125809778</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>42.331879980233133</v>
+        <v>17.672946448842847</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>24.850481699987352</v>
+        <v>46.868462385135516</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>5.2102380718459118</v>
+        <v>10.836205237344824</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>41.76100252053034</v>
+        <v>17.843623424291518</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>29.441554371981745</v>
+        <v>30.488507146666773</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>30.693010113113001</v>
+        <v>15.695620009799692</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
